--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1026294.767997847</v>
+        <v>-1028182.349514248</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>39.66958748909593</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>121.1561719595704</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>134.0196014506295</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.14167849255895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>133.7542698189849</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>90.56351676970137</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>111.0770101458546</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.6646815770841</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>354.3227626794439</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>16.72973301381641</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>39.25266187003822</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>17.13267830033018</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>124.3958428051365</v>
       </c>
       <c r="X13" t="n">
-        <v>95.31089658769019</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>102.2259978086876</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>97.22731587184825</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>103.9501784164446</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>112.6527826809841</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>50.37907584939731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>37.34995075181494</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>100.8870718500252</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>60.54139430664134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.97948033333827</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>78.67531269948178</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897891</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571477</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523557</v>
+        <v>54.76109577523571</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>86.18652692092479</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692825</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>1231.905553626649</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>1231.905553626649</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2398.591631656059</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2067.528744312488</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1714.760089042374</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1341.294330781294</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y2" t="n">
-        <v>1341.294330781294</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>381.8627885497561</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9728410518458</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.5111271432434</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.27522618254</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2296.880316419432</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2296.880316419432</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>1923.414558158352</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1533.27522618254</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.8646000824888</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545818</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545818</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>586.5130649127285</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>586.5130649127285</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="V7" t="n">
-        <v>586.5130649127285</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="W7" t="n">
-        <v>586.5130649127285</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X7" t="n">
-        <v>586.5130649127285</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y7" t="n">
-        <v>586.5130649127285</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2423.485734520778</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="C8" t="n">
-        <v>2054.523217580367</v>
+        <v>867.6158594241924</v>
       </c>
       <c r="D8" t="n">
-        <v>1696.257518973616</v>
+        <v>867.6158594241924</v>
       </c>
       <c r="E8" t="n">
-        <v>1310.469266375372</v>
+        <v>481.8276068259482</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>70.84170203634062</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520778</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>2423.485734520778</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D10" t="n">
-        <v>688.4798308023552</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E10" t="n">
-        <v>540.5667372199621</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,28 +5060,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.787631771461</v>
+        <v>973.0601618634513</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.513998854602</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.7214197110717</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,13 +5270,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5285,16 +5285,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.9567375132466</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C16" t="n">
-        <v>674.9567375132466</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>524.8400981009108</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241944</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688059</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799319</v>
+        <v>507.4972331799351</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471146</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557898</v>
+        <v>1395.657686912762</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557898</v>
+        <v>1395.657686912762</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557898</v>
+        <v>1395.657686912762</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352011</v>
+        <v>1140.973198706875</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150502</v>
+        <v>1140.973198706875</v>
       </c>
       <c r="X16" t="n">
-        <v>856.6052023434863</v>
+        <v>912.983647808858</v>
       </c>
       <c r="Y16" t="n">
-        <v>856.6052023434863</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,16 +5592,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.9958217162123</v>
+        <v>649.6418670412196</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883054</v>
+        <v>649.6418670412196</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>499.5252276288838</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1185.205570896703</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>895.7884008597424</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X19" t="n">
-        <v>895.7884008597424</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.9958217162123</v>
+        <v>649.6418670412196</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,49 +5753,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201021</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201021</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201021</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201021</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>213.9110074201021</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>986.002216560967</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550801</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181195</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201021</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201021</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>397.7517393246782</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>397.7517393246782</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1037.48362228133</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>782.7991340754431</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>493.3819640384826</v>
+        <v>720.4504516500519</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404652</v>
+        <v>618.5443184682083</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>397.7517393246782</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359.1696912903952</v>
+        <v>714.6010158349784</v>
       </c>
       <c r="C28" t="n">
-        <v>359.1696912903952</v>
+        <v>545.6648329070715</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903952</v>
+        <v>395.5481934947358</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903952</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903952</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903952</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>359.1696912903952</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>359.1696912903952</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y28" t="n">
-        <v>359.1696912903952</v>
+        <v>896.2494806652181</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,46 +6461,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6543,10 +6543,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
         <v>1247.466478653857</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.532429954221</v>
+        <v>750.8748194215245</v>
       </c>
       <c r="C31" t="n">
-        <v>439.532429954221</v>
+        <v>637.6995017749884</v>
       </c>
       <c r="D31" t="n">
-        <v>439.532429954221</v>
+        <v>543.3437276440235</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264616</v>
+        <v>451.1914993430012</v>
       </c>
       <c r="F31" t="n">
         <v>360.0624171264616</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1481.571032267146</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1282.64740934263</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818955</v>
+        <v>1048.99110458704</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652491</v>
+        <v>876.7624189703935</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030898</v>
+        <v>876.7624189703935</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6950,22 +6950,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7075,28 +7075,28 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649692</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982975</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>180.023701673586</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>162.1271555314545</v>
       </c>
       <c r="X13" t="n">
-        <v>130.398758801347</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>95.6948121749157</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>128.4823395171889</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>42.48378423012456</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,13 +23947,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>139.4848606428438</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>129.45290433254</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>50.96659166315953</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>248.8874016467624</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>124.822583539012</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>225.9816040299497</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>160.6051730187565</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965514</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>12.55539331853019</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437403</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>144.8475688490955</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728566</v>
@@ -26329,7 +26329,7 @@
         <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="I2" t="n">
         <v>156411.6238950835</v>
@@ -26338,22 +26338,22 @@
         <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.8549381078</v>
+        <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728565</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086686</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="I4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563567</v>
+        <v>33210.29213563563</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,10 +26494,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-665393.5615563198</v>
       </c>
       <c r="C6" t="n">
-        <v>-75425.68234177545</v>
+        <v>-75425.68234177539</v>
       </c>
       <c r="D6" t="n">
-        <v>-75425.68234177548</v>
+        <v>-75425.68234177551</v>
       </c>
       <c r="E6" t="n">
-        <v>-475781.4081519684</v>
+        <v>-475878.8672779406</v>
       </c>
       <c r="F6" t="n">
-        <v>49378.62832492772</v>
+        <v>49281.16919895557</v>
       </c>
       <c r="G6" t="n">
-        <v>49378.62832492773</v>
+        <v>49281.16919895558</v>
       </c>
       <c r="H6" t="n">
-        <v>49378.62832492776</v>
+        <v>49281.16919895553</v>
       </c>
       <c r="I6" t="n">
-        <v>49378.62832492776</v>
+        <v>49281.16919895557</v>
       </c>
       <c r="J6" t="n">
-        <v>-127044.5908676652</v>
+        <v>-127142.0499936374</v>
       </c>
       <c r="K6" t="n">
-        <v>-11272.25103059645</v>
+        <v>-11290.74476853055</v>
       </c>
       <c r="L6" t="n">
-        <v>18685.88448920501</v>
+        <v>18685.88448920504</v>
       </c>
       <c r="M6" t="n">
         <v>-105772.2239437653</v>
       </c>
       <c r="N6" t="n">
-        <v>29028.79129007155</v>
+        <v>29028.79129007181</v>
       </c>
       <c r="O6" t="n">
-        <v>29028.79129007176</v>
+        <v>29028.79129007182</v>
       </c>
       <c r="P6" t="n">
-        <v>-15133.81401277402</v>
+        <v>-15133.81401277382</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,34 +26741,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>315.013454131587</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>130.0679955487189</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>33.29020080842142</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.4429748595358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>231.5186219520227</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>237.1887417004335</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>113.9580953122297</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>22.61719266489359</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>52.5532830622675</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.0544370069786</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>109.3628111481741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>128.2883697226011</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.196383757076064e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655642</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.214186879924</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>462.3874039146943</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412274</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043197</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
